--- a/controlo_progresso.xlsx
+++ b/controlo_progresso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla\Documents\GitHub\Poo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla\Documents\GitHub\ProjetoPooFina-as\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE3B199-1ED0-44DF-8874-83D706D3CBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06502C76-6980-4A3B-B672-4936DE8A135E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Tarefa</t>
   </si>
@@ -70,6 +70,60 @@
   </si>
   <si>
     <t>Carla Moutinho</t>
+  </si>
+  <si>
+    <t>Criar estrutura de pastas do projeto</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Criar ficheiro user.py</t>
+  </si>
+  <si>
+    <t>Criar ficheiro admin.py</t>
+  </si>
+  <si>
+    <t>Criar ficheiro category.py</t>
+  </si>
+  <si>
+    <t>Criar ficheiro transaction.py</t>
+  </si>
+  <si>
+    <t>Criar ficheiro finance_manager.py</t>
+  </si>
+  <si>
+    <t>Criar ficheiro file_storage.py</t>
+  </si>
+  <si>
+    <t>Subir código base para GitHub</t>
+  </si>
+  <si>
+    <t>Atualizar ficheiro controlo_progresso.xlsx</t>
+  </si>
+  <si>
+    <t>Preparar ZIP da Entrega 2</t>
+  </si>
+  <si>
+    <t>Login/Registo</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>CRUD transações</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Persistência ficheiros</t>
+  </si>
+  <si>
+    <t>Relatórios &amp; Gráficos</t>
+  </si>
+  <si>
+    <t>UI / CSS</t>
   </si>
 </sst>
 </file>
@@ -113,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -127,6 +181,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,11 +477,11 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -503,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -561,6 +619,346 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45960</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45961</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45961</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45961</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45961</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45962</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45962</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45962</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45962</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45963</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45988</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45996</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45996</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45996</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45996</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45996</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45996</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45996</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45996</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45996</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45996</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45996</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45996</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45996</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45996</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
